--- a/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE67DB8-7575-448E-830F-B7070E8E2D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFE9A6C-5DE2-46FB-B2C9-B927657FD0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BEC82722-4B5F-447F-9BA9-A8AE78342316}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BEF1025-1026-4FA8-BF1D-FFDD769C5565}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>59,07%</t>
+    <t>59,56%</t>
   </si>
   <si>
     <t>82,57%</t>
@@ -119,7 +119,7 @@
     <t>85,35%</t>
   </si>
   <si>
-    <t>40,93%</t>
+    <t>40,44%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -128,25 +128,25 @@
     <t>40,32%</t>
   </si>
   <si>
-    <t>85,7%</t>
+    <t>86,11%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>73,7%</t>
+    <t>67,39%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>14,3%</t>
+    <t>13,89%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>26,3%</t>
+    <t>32,61%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -185,7 +185,7 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>47,98%</t>
+    <t>62,86%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -200,55 +200,55 @@
     <t>88,56%</t>
   </si>
   <si>
-    <t>52,02%</t>
+    <t>37,14%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>40,9%</t>
+    <t>45,12%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>59,1%</t>
+    <t>54,88%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555947EA-25AA-4A8D-A13E-FD979411D8D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B4B3D2-0C16-4B7B-97B8-4C4044AB69EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFE9A6C-5DE2-46FB-B2C9-B927657FD0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99691F27-D406-4ECA-9311-83D2ECE4210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BEF1025-1026-4FA8-BF1D-FFDD769C5565}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8431CC6E-B977-42EE-BDED-E78B6F78C4DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,7 +77,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>17,43%</t>
@@ -122,7 +122,7 @@
     <t>40,44%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>40,32%</t>
@@ -149,7 +149,7 @@
     <t>32,61%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B4B3D2-0C16-4B7B-97B8-4C4044AB69EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB2A9DB-A624-4944-BBB7-74A9F0087F5D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99691F27-D406-4ECA-9311-83D2ECE4210F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00552BF2-164B-4ABB-9FDC-54E1563628D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8431CC6E-B977-42EE-BDED-E78B6F78C4DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C3C5201-2C24-407A-80F0-C75C416EBDE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>59,56%</t>
+    <t>59,07%</t>
   </si>
   <si>
     <t>82,57%</t>
@@ -119,7 +119,7 @@
     <t>85,35%</t>
   </si>
   <si>
-    <t>40,44%</t>
+    <t>40,93%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -128,25 +128,25 @@
     <t>40,32%</t>
   </si>
   <si>
-    <t>86,11%</t>
+    <t>85,7%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>67,39%</t>
+    <t>73,7%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>14,3%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>32,61%</t>
+    <t>26,3%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -185,7 +185,7 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>62,86%</t>
+    <t>47,98%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -200,55 +200,55 @@
     <t>88,56%</t>
   </si>
   <si>
-    <t>37,14%</t>
+    <t>52,02%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>45,12%</t>
+    <t>40,9%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>54,88%</t>
+    <t>59,1%</t>
   </si>
   <si>
     <t>68,51%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB2A9DB-A624-4944-BBB7-74A9F0087F5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F408EE-13C7-4359-88DD-EDFC3CEB0778}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P41D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00552BF2-164B-4ABB-9FDC-54E1563628D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1DD7A01-27DB-4B2F-8338-5D19FE2EB375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3C3C5201-2C24-407A-80F0-C75C416EBDE9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{791F3C5D-0D17-4CA5-8FA2-0593DF4416EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
   <si>
     <t>Población según si con respecto a la última vez que lo intentaron se quedó embarazada en 2023 (Tasa respuesta: 0,27%)</t>
   </si>
@@ -65,46 +65,40 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,58 +110,58 @@
     <t>100%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>77,15%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>22,85%</t>
   </si>
   <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -176,79 +170,73 @@
     <t>44,41%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -663,8 +651,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F408EE-13C7-4359-88DD-EDFC3CEB0778}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806BD63A-4C2B-4F9C-9273-291076CF2211}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -781,88 +769,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1307</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1307</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5637</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1313</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <v>6950</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -871,108 +871,114 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6944</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1313</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8257</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1256</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1706</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1256</v>
+        <v>1705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>5951</v>
+        <v>2223</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
@@ -984,34 +990,34 @@
         <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>1367</v>
+        <v>2444</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>7318</v>
+        <v>4667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1020,54 +1026,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>7207</v>
+        <v>2223</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>1367</v>
+        <v>4150</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>8574</v>
+        <v>6372</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1079,94 +1085,94 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1945</v>
+        <v>1141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1945</v>
+        <v>1141</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1060</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1045</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="L11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
-        <v>2394</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2878</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="7">
-        <v>5</v>
-      </c>
       <c r="N11" s="7">
-        <v>5272</v>
+        <v>2105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1175,54 +1181,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1060</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
-        <v>2394</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
       <c r="I12" s="7">
-        <v>4823</v>
+        <v>2186</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>7217</v>
+        <v>3246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1234,94 +1240,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>1247</v>
+        <v>724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1247</v>
+        <v>724</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1126</v>
+        <v>3081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>1164</v>
+        <v>3172</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>2290</v>
+        <v>6253</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,153 +1336,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>1126</v>
+        <v>3081</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>2411</v>
+        <v>3896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N15" s="7">
-        <v>3537</v>
+        <v>6977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3571</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>850</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>850</v>
+        <v>4879</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>3198</v>
+        <v>12001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7973</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3387</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>6585</v>
+        <v>19974</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1485,217 +1491,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>3198</v>
+        <v>13308</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>4237</v>
+        <v>11544</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N18" s="7">
-        <v>7435</v>
+        <v>24853</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1256</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4042</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5298</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7">
-        <v>12668</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8796</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="7">
-        <v>19</v>
-      </c>
-      <c r="N20" s="7">
-        <v>21464</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7">
-        <v>13924</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="7">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7">
-        <v>12838</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="7">
-        <v>24</v>
-      </c>
-      <c r="N21" s="7">
-        <v>26762</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
